--- a/Data_Analysis_Team_6.xlsx
+++ b/Data_Analysis_Team_6.xlsx
@@ -2,26 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikeroglo/Documents/Purdue University/Semesters/Fall 2025/EEE 56000-002/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD63604D-7110-1C4D-9FE0-BD6CC7B7D73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74948D7E-4CC2-4C41-90F5-AD42E56DD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frequency" sheetId="7" r:id="rId1"/>
-    <sheet name="Plot Data" sheetId="8" r:id="rId2"/>
+    <sheet name="Plot-Table Data" sheetId="8" r:id="rId2"/>
     <sheet name="Coded Clean Data" sheetId="1" r:id="rId3"/>
     <sheet name="Decoded Data" sheetId="2" r:id="rId4"/>
     <sheet name="Raw Data" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="97" r:id="rId6"/>
     <pivotCache cacheId="28" r:id="rId7"/>
     <pivotCache cacheId="36" r:id="rId8"/>
     <pivotCache cacheId="40" r:id="rId9"/>
@@ -32,6 +32,8 @@
     <pivotCache cacheId="60" r:id="rId14"/>
     <pivotCache cacheId="64" r:id="rId15"/>
     <pivotCache cacheId="68" r:id="rId16"/>
+    <pivotCache cacheId="72" r:id="rId17"/>
+    <pivotCache cacheId="76" r:id="rId18"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="216">
   <si>
     <t>Status</t>
   </si>
@@ -336,6 +338,12 @@
     <t>How many days do you walk? (Fall)</t>
   </si>
   <si>
+    <t>Count of Q4_1</t>
+  </si>
+  <si>
+    <t>Count of Q4_3</t>
+  </si>
+  <si>
     <t>How many days do you walk? (Spring)</t>
   </si>
   <si>
@@ -616,13 +624,124 @@
   </si>
   <si>
     <t>anonymous</t>
+  </si>
+  <si>
+    <t>Environmental Engineering</t>
+  </si>
+  <si>
+    <t>PhD Major/Program</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Count of Q9_2</t>
+  </si>
+  <si>
+    <t>Count of Q9</t>
+  </si>
+  <si>
+    <t>Non-binery/Third Gender</t>
+  </si>
+  <si>
+    <t>Ph.D. Major/Program</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Environmental &amp; Ecological Engineering</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Distribution of participants by Ph.D. Major/Program</t>
+  </si>
+  <si>
+    <t>Distribution of participants by gender identity</t>
+  </si>
+  <si>
+    <t>Gender Identity</t>
+  </si>
+  <si>
+    <t>Non-binary / Third Gender</t>
+  </si>
+  <si>
+    <t>Non-binary/Third Gender</t>
+  </si>
+  <si>
+    <t>Walking (Spring)</t>
+  </si>
+  <si>
+    <t>Walking (Fall)</t>
+  </si>
+  <si>
+    <t>Walking (Summer)</t>
+  </si>
+  <si>
+    <t>Bike/Scooter/Skateboard (Fall)</t>
+  </si>
+  <si>
+    <t>Bike/Scooter/Skateboard (Spring)</t>
+  </si>
+  <si>
+    <t>Count of Q5_2</t>
+  </si>
+  <si>
+    <t>Bike/Scooter/Skateboard (Summer)</t>
+  </si>
+  <si>
+    <t>Count of Q5_3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Count of Q5_1</t>
+  </si>
+  <si>
+    <t>Bus/Shuttle (Fall)</t>
+  </si>
+  <si>
+    <t>Count of Q6_1</t>
+  </si>
+  <si>
+    <t>Count of Q6_3</t>
+  </si>
+  <si>
+    <t>Count of Q6_2</t>
+  </si>
+  <si>
+    <t>Bus/Shuttle (Spring)</t>
+  </si>
+  <si>
+    <t>Bus/Shuttle (Summer)</t>
+  </si>
+  <si>
+    <t>Private Car (Summer)</t>
+  </si>
+  <si>
+    <t>Count of Q7_1</t>
+  </si>
+  <si>
+    <t>Private Car (Fall)</t>
+  </si>
+  <si>
+    <t>Private Car (Spring)</t>
+  </si>
+  <si>
+    <t>Count of Q7_2</t>
+  </si>
+  <si>
+    <t>Count of Q7_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -649,6 +768,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -698,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -745,166 +870,20 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="49">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -1097,7 +1076,11 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="Q3_1" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <s v=""/>
+        <n v="1"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q3_2" numFmtId="0">
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
@@ -1109,46 +1092,112 @@
       <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
     <cacheField name="Q4_1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="4"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q4_2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="4"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q4_3" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q5_1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q5_2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="3">
+        <n v="1"/>
+        <n v="4"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q5_3" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="4">
+        <n v="1"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q6_1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q6_2" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="5">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="5"/>
+        <s v=""/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q6_3" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="6">
+        <n v="1"/>
+        <n v="2"/>
+        <s v=""/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q7_1" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="4"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q7_2" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="4"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q7_3" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5" count="4">
+        <n v="3"/>
+        <n v="1"/>
+        <n v="4"/>
+        <n v="5"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Q8" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="9"/>
     </cacheField>
     <cacheField name="Q9" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="1"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1194,6 +1243,51 @@
         <n v="2"/>
         <n v="4"/>
         <n v="3"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ikeroglo" refreshedDate="45924.575903703706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{90CA0BED-DCDB-2C45-8849-1229AF3CDCD2}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="X1:X12" sheet="Coded Clean Data"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Q8" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="9" count="4">
+        <n v="4"/>
+        <n v="5"/>
+        <n v="9"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ikeroglo" refreshedDate="45924.585453009262" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{A726F171-102A-254C-9864-D2649E7E084C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="Y1:Y12" sheet="Coded Clean Data"/>
+  </cacheSource>
+  <cacheFields count="1">
+    <cacheField name="Q9" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="3" count="3">
+        <n v="2"/>
+        <n v="3"/>
+        <n v="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1393,24 +1487,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="2"/>
-    <s v=""/>
+    <x v="0"/>
     <s v=""/>
     <s v=""/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1420,24 +1514,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="1"/>
-    <n v="1"/>
+    <x v="1"/>
     <s v=""/>
     <n v="1"/>
     <s v=""/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="4"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1447,24 +1541,24 @@
     <x v="1"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="2"/>
     <n v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="1"/>
-    <n v="5"/>
-    <n v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="0"/>
@@ -1474,24 +1568,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="3"/>
-    <s v=""/>
+    <x v="0"/>
     <s v=""/>
     <s v=""/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1501,24 +1595,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="2"/>
-    <n v="3"/>
+    <x v="2"/>
     <s v=""/>
     <s v=""/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <n v="9"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="0"/>
@@ -1528,24 +1622,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="3"/>
-    <s v=""/>
+    <x v="0"/>
     <s v=""/>
     <s v=""/>
     <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <s v=""/>
-    <s v=""/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="3"/>
-    <n v="4"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="0"/>
@@ -1555,24 +1649,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="4"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="3"/>
     <n v="1"/>
     <n v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1582,24 +1676,24 @@
     <x v="0"/>
     <n v="4"/>
     <n v="4"/>
-    <n v="1"/>
+    <x v="1"/>
     <s v=""/>
     <s v=""/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="4"/>
-    <n v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="0"/>
@@ -1609,51 +1703,51 @@
     <x v="1"/>
     <n v="3"/>
     <n v="4"/>
+    <x v="0"/>
+    <s v=""/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0"/>
+    <n v="228"/>
+    <s v="qr"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="1"/>
     <s v=""/>
     <s v=""/>
     <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="3"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
     <n v="4"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="0"/>
-    <n v="228"/>
-    <s v="qr"/>
-    <x v="0"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <s v=""/>
-    <s v=""/>
-    <n v="1"/>
-    <n v="4"/>
-    <n v="2"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="5"/>
-    <n v="3"/>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="4"/>
-    <n v="5"/>
-    <n v="4"/>
-    <n v="1"/>
+    <x v="2"/>
   </r>
   <r>
     <n v="0"/>
@@ -1663,24 +1757,24 @@
     <x v="1"/>
     <s v=""/>
     <n v="3"/>
-    <n v="1"/>
+    <x v="1"/>
     <n v="2"/>
     <n v="2"/>
     <s v=""/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
-    <n v="3"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="0"/>
     <n v="6"/>
-    <n v="2"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -1761,6 +1855,82 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="11">
   <r>
@@ -2066,6 +2236,574 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6661B72-CE79-1B43-AB64-9AF2286D5521}" name="PivotTable30" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Summer)">
+  <location ref="L59:Q64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="22"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q7_3" fld="22" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCA91419-232B-344E-A00C-57680A8266D7}" name="PivotTable21" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Summer)">
+  <location ref="E50:J55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item n="0 days" x="0"/>
+        <item n="1-2 days" x="1"/>
+        <item n="3-4 days" x="3"/>
+        <item n="5-6 days" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q4_3" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9D97529-F77B-B440-B769-54A887E7B649}" name="PivotTable20" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Spring)">
+  <location ref="E43:J48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item n="0 days" x="0"/>
+        <item n="1-2 days" x="2"/>
+        <item n="3-4 days" x="3"/>
+        <item n="5-6 days" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="12"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q4_3" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99153D7A-94A6-9444-9990-43EE8474B891}" name="PivotTable19" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Fall)">
+  <location ref="E36:I41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item n="0 days" x="0"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="11"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q4_1" fld="11" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC2DC0EF-5024-174C-A136-103927E78A2F}" name="PivotTable18" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E30:G34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binery/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Count of Q9" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Q9_2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30843EA2-3EDB-3042-9FE0-7BE8742289D3}" name="PivotTable17" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E23:G28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item n="Environmental Engineering" x="0"/>
+        <item n="Nuclear Engineering" x="1"/>
+        <item n="Engineering Education" x="3"/>
+        <item n="Other" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="PhD Major/Program" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512997FE-1FA6-D048-BE9E-8C3C5ACED054}" name="PivotTable16" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E16:G21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -2126,14 +2864,16 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B1D9AFE-41A4-7741-ABFD-36E64A3019CF}" name="PivotTable6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A8:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB3F05AA-6338-AF41-9847-340195C42F29}" name="PivotTable15" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E9:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item n="3-4 days" x="1"/>
-        <item n="5-6 days" x="0"/>
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2141,12 +2881,18 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2164,30 +2910,532 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="How often do you commute to campus? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="How many days do you walk? (Spring)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="87">
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6CFDFD9-EAF3-C249-9B11-3470067D5FF8}" name="PivotTable14" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E3:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="0 days" x="0"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How many days do you walk? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="%  of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F784DAE-4B68-C044-85D4-ED0E1D06794E}" name="PivotTable13" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A46:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Fall" x="0"/>
+        <item n="Spring" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Which semester do you drive your private car  to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D20CD7D-5246-AC44-B09D-62C16D287304}" name="PivotTable12" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A40:C44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Fall" x="1"/>
+        <item n="Spring" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Which semester do you use public bus/university shuttle to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB30CBA6-E5F0-EA44-A838-B0241E7D49ED}" name="PivotTable29" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Spring)">
+  <location ref="L52:Q57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="21"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q7_2" fld="21" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78268734-4F23-5F4F-AD84-B3E0D16625D0}" name="PivotTable11" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A34:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Spring" x="2"/>
+        <item n="Summer" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Which semester do you use bike/cooter/skateboard to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25AE9CF5-1E14-474F-8AFB-73E0EC876C0D}" name="PivotTable10" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A28:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Fall" x="1"/>
+        <item n="Summer" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Which semester do you walk to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{091E3822-BD20-D64B-B6D4-2673059EEAA2}" name="PivotTable9" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item n="0 days" x="1"/>
+        <item n="1-2 days" x="0"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How often do you commute to campus? (Summer)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="46">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2197,26 +3445,160 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="24">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="22">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{843170AE-73E2-7445-9F03-A3B764517582}" name="PivotTable8" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A13:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item n="0 days" x="3"/>
+        <item n="1-2 days" x="1"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How often do you commute to campus? (Spring)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="42">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2239,44 +3621,20 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C1F19F7-C74A-5A40-A59C-79919ACB7AEF}" name="PivotTable5" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+<file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B1D9AFE-41A4-7741-ABFD-36E64A3019CF}" name="PivotTable6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A8:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="3">
-        <item n="Off Campus" x="0"/>
-        <item n="On Campus" x="1"/>
+        <item n="3-4 days" x="1"/>
+        <item n="5-6 days" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -2301,30 +3659,30 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Housing" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="3" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="How often do you commute to campus? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="81">
+    <format dxfId="36">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="35">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="34">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="3" count="0"/>
+          <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2334,26 +3692,26 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="12">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="10">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="3" count="0"/>
+          <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2376,35 +3734,51 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB3F05AA-6338-AF41-9847-340195C42F29}" name="PivotTable15" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E9:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
+<file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C1F19F7-C74A-5A40-A59C-79919ACB7AEF}" name="PivotTable5" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
+      <items count="3">
+        <item n="Off Campus" x="0"/>
+        <item n="On Campus" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2422,376 +3796,30 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="How many days do you walk? (Spring)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Housing" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="3" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6CFDFD9-EAF3-C249-9B11-3470067D5FF8}" name="PivotTable14" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E3:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="0 days" x="0"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="How many days do you walk? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="%  of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F784DAE-4B68-C044-85D4-ED0E1D06794E}" name="PivotTable13" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A46:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Fall" x="0"/>
-        <item n="Spring" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you drive your private car  to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D20CD7D-5246-AC44-B09D-62C16D287304}" name="PivotTable12" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A40:C44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Fall" x="1"/>
-        <item n="Spring" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you use public bus/university shuttle to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78268734-4F23-5F4F-AD84-B3E0D16625D0}" name="PivotTable11" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A34:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Spring" x="2"/>
-        <item n="Summer" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you use bike/cooter/skateboard to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25AE9CF5-1E14-474F-8AFB-73E0EC876C0D}" name="PivotTable10" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A28:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Fall" x="1"/>
-        <item n="Summer" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you walk to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{091E3822-BD20-D64B-B6D4-2673059EEAA2}" name="PivotTable9" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A21:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item n="0 days" x="1"/>
-        <item n="1-2 days" x="0"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="How often do you commute to campus? (Summer)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="13">
-    <format dxfId="99">
+  <formats count="12">
+    <format dxfId="30">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="28">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -2801,39 +3829,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="74">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    <format dxfId="4">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="71">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
             <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
             <x v="1"/>
           </reference>
         </references>
@@ -2852,25 +3871,106 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{843170AE-73E2-7445-9F03-A3B764517582}" name="PivotTable8" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A13:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{451F2132-C498-464D-8262-F47D72BDA384}" name="PivotTable28" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Fall)">
+  <location ref="L45:Q50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
       <items count="6">
-        <item n="0 days" x="3"/>
-        <item n="1-2 days" x="1"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="0"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="24"/>
   </rowFields>
-  <rowItems count="6">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -2879,92 +3979,747 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="-2"/>
+    <field x="20"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="5">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="How often do you commute to campus? (Spring)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  <dataFields count="1">
+    <dataField name="Count of Q7_1" fld="20" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="93">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="92">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="91">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="90">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="89">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="88">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="69">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C8A941D-6B66-694F-9972-4D971C815730}" name="PivotTable27" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Summer)">
+  <location ref="L38:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="19"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q6_3" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C4176D8-E939-1843-B77D-81EA1801C95F}" name="PivotTable26" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Spring)">
+  <location ref="L31:R36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="18"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q6_2" fld="18" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A8D9812-6324-6442-B8AF-EC6F7F2E6E79}" name="PivotTable25" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Fall)">
+  <location ref="L24:R29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="17"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q6_1" fld="17" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F811F7-18C0-0F44-ADBB-F26A7E058EFC}" name="PivotTable24" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Summer)">
+  <location ref="L17:Q22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="16"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q5_3" fld="16" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6D81339-25DD-1143-94B1-BBCE9FACCCDC}" name="PivotTable23" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Spring)">
+  <location ref="L10:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="1" x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="15"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q5_2" fld="15" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282D83A6-E029-1249-A1AE-ED294C0A922F}" name="PivotTable22" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Fall)">
+  <location ref="L3:Q8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="14"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q5_1" fld="14" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3294,10 +5049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A37FB68-4731-F74B-ADEA-29587AD31BB3}">
-  <dimension ref="A2:G50"/>
+  <dimension ref="A2:AM64"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="225" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="225" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3305,17 +5060,38 @@
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
+    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="9.1640625" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>68</v>
       </c>
@@ -3332,10 +5108,16 @@
         <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>70</v>
       </c>
@@ -3354,8 +5136,26 @@
       <c r="G4" s="7">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
@@ -3374,8 +5174,24 @@
       <c r="G5" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
@@ -3394,8 +5210,22 @@
       <c r="G6" s="7">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3408,8 +5238,20 @@
       <c r="G7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L7" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>68</v>
       </c>
@@ -3419,8 +5261,26 @@
       <c r="C8" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="4">
+        <v>7</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
@@ -3434,13 +5294,13 @@
         <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>73</v>
       </c>
@@ -3459,8 +5319,14 @@
       <c r="G10" s="7">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>67</v>
       </c>
@@ -3479,8 +5345,23 @@
       <c r="G11" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3493,8 +5374,23 @@
       <c r="G12" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L12" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>68</v>
       </c>
@@ -3513,8 +5409,21 @@
       <c r="G13" s="7">
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L13" s="6">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>55</v>
       </c>
@@ -3533,8 +5442,19 @@
       <c r="G14" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L14" s="6">
+        <v>3</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>75</v>
       </c>
@@ -3544,8 +5464,23 @@
       <c r="C15" s="11">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M15" s="4">
+        <v>8</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>72</v>
       </c>
@@ -3559,13 +5494,13 @@
         <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>73</v>
       </c>
@@ -3584,8 +5519,14 @@
       <c r="G17" s="7">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="10">
         <v>1</v>
@@ -3602,8 +5543,26 @@
       <c r="G18" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>67</v>
       </c>
@@ -3622,8 +5581,24 @@
       <c r="G19" s="7">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3636,8 +5611,22 @@
       <c r="G20" s="7">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L20" s="6">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>5</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>68</v>
       </c>
@@ -3645,7 +5634,7 @@
         <v>78</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>67</v>
@@ -3656,8 +5645,20 @@
       <c r="G21" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L21" s="6">
+        <v>3</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>55</v>
       </c>
@@ -3667,8 +5668,26 @@
       <c r="C22" s="11">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="4">
+        <v>7</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>75</v>
       </c>
@@ -3678,8 +5697,17 @@
       <c r="C23" s="11">
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>72</v>
       </c>
@@ -3689,8 +5717,23 @@
       <c r="C24" s="11">
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E24" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="4">
+        <v>8</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>73</v>
       </c>
@@ -3700,8 +5743,38 @@
       <c r="C25" s="11">
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>67</v>
       </c>
@@ -3711,8 +5784,64 @@
       <c r="C26" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M27" s="4">
+        <v>4</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
@@ -3722,8 +5851,30 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="4">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>81</v>
       </c>
@@ -3733,8 +5884,29 @@
       <c r="C29" s="7">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="L29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="4">
+        <v>4</v>
+      </c>
+      <c r="N29" s="4">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4">
+        <v>3</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1</v>
+      </c>
+      <c r="R29" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>82</v>
       </c>
@@ -3744,8 +5916,17 @@
       <c r="C30" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="4">
         <v>4</v>
@@ -3753,8 +5934,23 @@
       <c r="C31" s="7">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>67</v>
       </c>
@@ -3764,8 +5960,63 @@
       <c r="C32" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E33" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4">
+        <v>2</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4">
+        <v>1</v>
+      </c>
+      <c r="R33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
@@ -3775,8 +6026,34 @@
       <c r="C34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="4">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="4">
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>83</v>
       </c>
@@ -3786,8 +6063,21 @@
       <c r="C35" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L35" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>82</v>
       </c>
@@ -3797,8 +6087,35 @@
       <c r="C36" s="7">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E36" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="4">
+        <v>4</v>
+      </c>
+      <c r="N36" s="4">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>3</v>
+      </c>
+      <c r="P36" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>1</v>
+      </c>
+      <c r="R36" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="4">
         <v>8</v>
@@ -3806,8 +6123,23 @@
       <c r="C37" s="7">
         <v>0.72727272727272729</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" t="s">
+        <v>73</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>67</v>
       </c>
@@ -3817,8 +6149,65 @@
       <c r="C38" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E38" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>4</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E39" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>6</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>3</v>
+      </c>
+      <c r="P39">
+        <v>4</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>68</v>
       </c>
@@ -3828,8 +6217,39 @@
       <c r="C40" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E40" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <v>1</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>1</v>
+      </c>
+      <c r="R40" s="4">
+        <v>1</v>
+      </c>
+      <c r="S40" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>81</v>
       </c>
@@ -3839,8 +6259,39 @@
       <c r="C41" s="7">
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E41" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="4">
+        <v>6</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>4</v>
+      </c>
+      <c r="I41" s="4">
+        <v>11</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="4">
+        <v>5</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>83</v>
       </c>
@@ -3850,8 +6301,22 @@
       <c r="C42" s="7">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L42" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M42" s="4">
+        <v>1</v>
+      </c>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="4">
         <v>6</v>
@@ -3859,8 +6324,38 @@
       <c r="C43" s="7">
         <v>0.54545454545454541</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="4">
+        <v>6</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+      <c r="S43" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>67</v>
       </c>
@@ -3870,8 +6365,50 @@
       <c r="C44" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" t="s">
+        <v>75</v>
+      </c>
+      <c r="H44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E45" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" s="4">
+        <v>4</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>68</v>
       </c>
@@ -3881,8 +6418,42 @@
       <c r="C46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>6</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>3</v>
+      </c>
+      <c r="P46">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>81</v>
       </c>
@@ -3892,8 +6463,36 @@
       <c r="C47" s="7">
         <v>0.72727272727272729</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E47" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4">
+        <v>1</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M47" s="4">
+        <v>1</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>83</v>
       </c>
@@ -3903,8 +6502,42 @@
       <c r="C48" s="7">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E48" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>3</v>
+      </c>
+      <c r="J48" s="4">
+        <v>11</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="4">
+        <v>2</v>
+      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="4">
         <v>2</v>
@@ -3912,8 +6545,20 @@
       <c r="C49" s="7">
         <v>0.18181818181818182</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="L49" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M49" s="4">
+        <v>1</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>67</v>
       </c>
@@ -3922,6 +6567,308 @@
       </c>
       <c r="C50" s="7">
         <v>1</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M50" s="4">
+        <v>4</v>
+      </c>
+      <c r="N50" s="4">
+        <v>1</v>
+      </c>
+      <c r="O50" s="4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q50" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E51" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
+        <v>1</v>
+      </c>
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" s="4">
+        <v>4</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>6</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>3</v>
+      </c>
+      <c r="P53">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M54" s="4">
+        <v>1</v>
+      </c>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="4">
+        <v>6</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2</v>
+      </c>
+      <c r="J55" s="4">
+        <v>11</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M55" s="4">
+        <v>2</v>
+      </c>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L56" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4">
+        <v>1</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L57" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M57" s="4">
+        <v>3</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1</v>
+      </c>
+      <c r="O57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L59" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="M61" s="4">
+        <v>1</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1</v>
+      </c>
+      <c r="O61" s="4">
+        <v>1</v>
+      </c>
+      <c r="P61" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M62" s="4">
+        <v>2</v>
+      </c>
+      <c r="N62" s="4">
+        <v>3</v>
+      </c>
+      <c r="O62" s="4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L63" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M63" s="4">
+        <v>1</v>
+      </c>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L64" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M64" s="4">
+        <v>4</v>
+      </c>
+      <c r="N64" s="4">
+        <v>4</v>
+      </c>
+      <c r="O64" s="4">
+        <v>2</v>
+      </c>
+      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="4">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3931,41 +6878,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9785D5-C573-6E4E-8370-7EEAD83B7C3A}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="225" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -3978,8 +6950,23 @@
       <c r="D3">
         <v>18.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="24">
+        <v>8</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3992,8 +6979,23 @@
       <c r="D4">
         <v>27.27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="24">
+        <v>1</v>
+      </c>
+      <c r="H4" s="25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="28"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -4006,8 +7008,23 @@
       <c r="D5">
         <v>27.27</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="24">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -4020,8 +7037,23 @@
       <c r="D6">
         <v>27.27</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="24">
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -4034,34 +7066,55 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="24">
+        <v>11</v>
+      </c>
+      <c r="H7" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>95</v>
-      </c>
       <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>54.55</v>
@@ -4072,10 +7125,19 @@
       <c r="D11">
         <v>9.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="24">
+        <v>4</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4086,10 +7148,19 @@
       <c r="D12">
         <v>18.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="24">
+        <v>6</v>
+      </c>
+      <c r="H12" s="25">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>27.27</v>
@@ -4100,10 +7171,19 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>72.73</v>
@@ -4113,6 +7193,15 @@
       </c>
       <c r="D14">
         <v>0</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="24">
+        <v>11</v>
+      </c>
+      <c r="H14" s="25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4121,6 +7210,7 @@
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4128,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="225" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView zoomScale="225" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="A1:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5155,40 +8245,40 @@
         <v>34</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>47</v>
@@ -6002,55 +9092,55 @@
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="R1" s="17" t="s">
         <v>3</v>
@@ -6113,72 +9203,72 @@
         <v>22</v>
       </c>
       <c r="AL1" s="17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM1" s="17" t="s">
         <v>23</v>
       </c>
       <c r="AN1" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AO1" s="17" t="s">
         <v>24</v>
       </c>
       <c r="AP1" s="17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="R2" s="18" t="s">
         <v>27</v>
@@ -6241,27 +9331,27 @@
         <v>46</v>
       </c>
       <c r="AL2" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AM2" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AN2" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AO2" s="17" t="s">
         <v>48</v>
       </c>
       <c r="AP2" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C3" s="20">
         <v>1</v>
@@ -6277,10 +9367,10 @@
         <v>1</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -6293,10 +9383,10 @@
         <v>-86.925600000000003</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R3" s="20">
         <v>8</v>
@@ -6370,10 +9460,10 @@
     </row>
     <row r="4" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
@@ -6389,10 +9479,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -6405,10 +9495,10 @@
         <v>-86.925600000000003</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -6442,10 +9532,10 @@
     </row>
     <row r="5" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C5" s="20">
         <v>1</v>
@@ -6461,10 +9551,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
@@ -6477,10 +9567,10 @@
         <v>-86.925600000000003</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R5" s="20">
         <v>8</v>
@@ -6546,16 +9636,16 @@
     </row>
     <row r="6" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="20">
         <v>0</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E6" s="20">
         <v>100</v>
@@ -6567,10 +9657,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -6586,7 +9676,7 @@
         <v>50</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R6" s="20">
         <v>8</v>
@@ -6654,16 +9744,16 @@
     </row>
     <row r="7" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C7" s="20">
         <v>0</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E7" s="20">
         <v>100</v>
@@ -6675,10 +9765,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -6694,7 +9784,7 @@
         <v>50</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R7" s="20">
         <v>8</v>
@@ -6764,16 +9854,16 @@
     </row>
     <row r="8" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C8" s="20">
         <v>0</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E8" s="20">
         <v>100</v>
@@ -6785,10 +9875,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -6804,7 +9894,7 @@
         <v>50</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R8" s="20">
         <v>8</v>
@@ -6878,16 +9968,16 @@
     </row>
     <row r="9" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C9" s="20">
         <v>0</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E9" s="20">
         <v>100</v>
@@ -6899,10 +9989,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -6918,7 +10008,7 @@
         <v>50</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R9" s="20">
         <v>8</v>
@@ -6986,16 +10076,16 @@
     </row>
     <row r="10" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C10" s="20">
         <v>0</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E10" s="20">
         <v>100</v>
@@ -7007,10 +10097,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -7026,7 +10116,7 @@
         <v>50</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R10" s="20">
         <v>8</v>
@@ -7096,16 +10186,16 @@
     </row>
     <row r="11" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E11" s="20">
         <v>100</v>
@@ -7117,10 +10207,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -7136,7 +10226,7 @@
         <v>50</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R11" s="20">
         <v>8</v>
@@ -7200,16 +10290,16 @@
     </row>
     <row r="12" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C12" s="20">
         <v>0</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E12" s="20">
         <v>100</v>
@@ -7221,10 +10311,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -7240,7 +10330,7 @@
         <v>50</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R12" s="20">
         <v>8</v>
@@ -7314,16 +10404,16 @@
     </row>
     <row r="13" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" s="20">
         <v>0</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E13" s="20">
         <v>100</v>
@@ -7335,10 +10425,10 @@
         <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -7354,7 +10444,7 @@
         <v>50</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R13" s="20">
         <v>8</v>
@@ -7424,16 +10514,16 @@
     </row>
     <row r="14" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C14" s="20">
         <v>0</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E14" s="20">
         <v>100</v>
@@ -7445,10 +10535,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -7464,7 +10554,7 @@
         <v>50</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R14" s="20">
         <v>8</v>
@@ -7534,16 +10624,16 @@
     </row>
     <row r="15" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C15" s="20">
         <v>0</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E15" s="20">
         <v>100</v>
@@ -7555,10 +10645,10 @@
         <v>1</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -7574,7 +10664,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R15" s="20">
         <v>8</v>
@@ -7644,16 +10734,16 @@
     </row>
     <row r="16" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C16" s="20">
         <v>0</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E16" s="20">
         <v>100</v>
@@ -7665,10 +10755,10 @@
         <v>1</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -7684,7 +10774,7 @@
         <v>50</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R16" s="20">
         <v>7</v>
@@ -7754,16 +10844,16 @@
     </row>
     <row r="17" spans="1:42" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C17" s="20">
         <v>0</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E17" s="20">
         <v>100</v>
@@ -7775,10 +10865,10 @@
         <v>1</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -7791,10 +10881,10 @@
         <v>23.735299999999999</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="R17" s="20">
         <v>8</v>

--- a/Data_Analysis_Team_6.xlsx
+++ b/Data_Analysis_Team_6.xlsx
@@ -5,35 +5,36 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikeroglo/Documents/Purdue University/Semesters/Fall 2025/EEE 56000-002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ikeroglo/Documents/Purdue University/Semesters/Fall 2025/EEE 56000-002/Project Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74948D7E-4CC2-4C41-90F5-AD42E56DD5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81244AD-4479-FF4C-B8B1-A800A0293017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Frequency" sheetId="7" r:id="rId1"/>
-    <sheet name="Plot-Table Data" sheetId="8" r:id="rId2"/>
-    <sheet name="Coded Clean Data" sheetId="1" r:id="rId3"/>
-    <sheet name="Decoded Data" sheetId="2" r:id="rId4"/>
-    <sheet name="Raw Data" sheetId="9" r:id="rId5"/>
+    <sheet name="Mean &amp; Std Dev" sheetId="10" r:id="rId1"/>
+    <sheet name="Frequency" sheetId="7" r:id="rId2"/>
+    <sheet name="Plot-Table Data" sheetId="8" r:id="rId3"/>
+    <sheet name="Coded Clean Data" sheetId="1" r:id="rId4"/>
+    <sheet name="Decoded Data" sheetId="2" r:id="rId5"/>
+    <sheet name="Raw Data" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="97" r:id="rId6"/>
-    <pivotCache cacheId="28" r:id="rId7"/>
-    <pivotCache cacheId="36" r:id="rId8"/>
-    <pivotCache cacheId="40" r:id="rId9"/>
-    <pivotCache cacheId="44" r:id="rId10"/>
-    <pivotCache cacheId="48" r:id="rId11"/>
-    <pivotCache cacheId="52" r:id="rId12"/>
-    <pivotCache cacheId="56" r:id="rId13"/>
-    <pivotCache cacheId="60" r:id="rId14"/>
-    <pivotCache cacheId="64" r:id="rId15"/>
-    <pivotCache cacheId="68" r:id="rId16"/>
-    <pivotCache cacheId="72" r:id="rId17"/>
-    <pivotCache cacheId="76" r:id="rId18"/>
+    <pivotCache cacheId="212" r:id="rId7"/>
+    <pivotCache cacheId="213" r:id="rId8"/>
+    <pivotCache cacheId="214" r:id="rId9"/>
+    <pivotCache cacheId="215" r:id="rId10"/>
+    <pivotCache cacheId="216" r:id="rId11"/>
+    <pivotCache cacheId="217" r:id="rId12"/>
+    <pivotCache cacheId="218" r:id="rId13"/>
+    <pivotCache cacheId="219" r:id="rId14"/>
+    <pivotCache cacheId="220" r:id="rId15"/>
+    <pivotCache cacheId="221" r:id="rId16"/>
+    <pivotCache cacheId="222" r:id="rId17"/>
+    <pivotCache cacheId="223" r:id="rId18"/>
+    <pivotCache cacheId="224" r:id="rId19"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="239">
   <si>
     <t>Status</t>
   </si>
@@ -735,13 +736,82 @@
   </si>
   <si>
     <t>Count of Q7_3</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std_Dev</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Raw_Data</t>
+  </si>
+  <si>
+    <t>[0, 5.5, 0, 0, 0, 5.5, 5.5, 0, 0, 5.5, 3.5]</t>
+  </si>
+  <si>
+    <t>[0, 5.5, 0, 0, 0, 5.5, 5.5, 0, 0, 1.5, 3.5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 1.5, 0, 0, 5.5, 5.5, 0, 0, 3.5, 3.5]</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>[0, 0, 1.5, 0, 0, 5.5, 0, 0, 0, 3.5, 3.5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 0, 5.5, 0, 0, 0, 3.5, 3.5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 3.5, 0, 0, 5.5, 0, 0, 0, 7, 3.5]</t>
+  </si>
+  <si>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>[0, 1.5, 3.5, 0, 1.5, 5.5, 0, 0, 3.5, 7, 3.5]</t>
+  </si>
+  <si>
+    <t>[0, 1.5, 7, 0, 1.5, 0, 0, 0, 3.5, 3.5, 3.5]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0, 1.5, 0, 0, 0, 5.5, 7, 3.5]</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>[5.5, 0, 0, 5.5, 5.5, 5.5, 5.5, 0, 5.5, 0, 3.5]</t>
+  </si>
+  <si>
+    <t>[5.5, 0, 1.5, 5.5, 5.5, 5.5, 5.5, 0, 5.5, 0, 3.5]</t>
+  </si>
+  <si>
+    <t>[3.5, 0, 0, 3.5, 5.5, 3.5, 0, 0, 5.5, 0, 3.5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -775,6 +845,12 @@
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -823,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -832,7 +908,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -844,19 +919,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -864,7 +930,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -874,9 +939,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,60 +953,6 @@
   <dxfs count="49">
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment vertical="center"/>
@@ -976,7 +991,22 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -997,6 +1027,24 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -1010,6 +1058,27 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -2236,7 +2305,1072 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6661B72-CE79-1B43-AB64-9AF2286D5521}" name="PivotTable30" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Summer)">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F811F7-18C0-0F44-ADBB-F26A7E058EFC}" name="PivotTable24" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Summer)">
+  <location ref="L17:Q22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="16"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q5_3" fld="16" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C8A941D-6B66-694F-9972-4D971C815730}" name="PivotTable27" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Summer)">
+  <location ref="L38:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="19"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q6_3" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D20CD7D-5246-AC44-B09D-62C16D287304}" name="PivotTable12" cacheId="218" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A40:C44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Fall" x="1"/>
+        <item n="Spring" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Which semester do you use public bus/university shuttle to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCA91419-232B-344E-A00C-57680A8266D7}" name="PivotTable21" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Summer)">
+  <location ref="E50:J55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="5">
+        <item n="0 days" x="0"/>
+        <item n="1-2 days" x="1"/>
+        <item n="3-4 days" x="3"/>
+        <item n="5-6 days" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q4_3" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{843170AE-73E2-7445-9F03-A3B764517582}" name="PivotTable8" cacheId="214" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A13:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item n="0 days" x="3"/>
+        <item n="1-2 days" x="1"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How often do you commute to campus? (Spring)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="24">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512997FE-1FA6-D048-BE9E-8C3C5ACED054}" name="PivotTable16" cacheId="222" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E16:G21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How many days do you walk? (Summer)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C4176D8-E939-1843-B77D-81EA1801C95F}" name="PivotTable26" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Spring)">
+  <location ref="L31:R36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="18"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q6_2" fld="18" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B1D9AFE-41A4-7741-ABFD-36E64A3019CF}" name="PivotTable6" cacheId="213" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A8:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item n="3-4 days" x="1"/>
+        <item n="5-6 days" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How often do you commute to campus? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="12">
+    <format dxfId="36">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9D97529-F77B-B440-B769-54A887E7B649}" name="PivotTable20" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Spring)">
+  <location ref="E43:J48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item n="0 days" x="0"/>
+        <item n="1-2 days" x="2"/>
+        <item n="3-4 days" x="3"/>
+        <item n="5-6 days" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="12"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q4_3" fld="13" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A8D9812-6324-6442-B8AF-EC6F7F2E6E79}" name="PivotTable25" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Fall)">
+  <location ref="L24:R29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="24"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="17"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Q6_1" fld="17" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6661B72-CE79-1B43-AB64-9AF2286D5521}" name="PivotTable30" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Summer)">
   <location ref="L59:Q64" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -2391,309 +3525,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CCA91419-232B-344E-A00C-57680A8266D7}" name="PivotTable21" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Summer)">
-  <location ref="E50:J55" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item n="0 days" x="0"/>
-        <item n="1-2 days" x="1"/>
-        <item n="3-4 days" x="3"/>
-        <item n="5-6 days" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item n="Male" x="2"/>
-        <item n="Female" x="0"/>
-        <item n="Non-binary/Third Gender" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q4_3" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C9D97529-F77B-B440-B769-54A887E7B649}" name="PivotTable20" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Spring)">
-  <location ref="E43:J48" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item n="0 days" x="0"/>
-        <item n="1-2 days" x="2"/>
-        <item n="3-4 days" x="3"/>
-        <item n="5-6 days" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item n="Male" x="2"/>
-        <item n="Female" x="0"/>
-        <item n="Non-binary/Third Gender" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="12"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q4_3" fld="13" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99153D7A-94A6-9444-9990-43EE8474B891}" name="PivotTable19" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Fall)">
-  <location ref="E36:I41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="4">
-        <item n="0 days" x="0"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item n="Male" x="2"/>
-        <item n="Female" x="0"/>
-        <item n="Non-binary/Third Gender" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="11"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q4_1" fld="11" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC2DC0EF-5024-174C-A136-103927E78A2F}" name="PivotTable18" cacheId="76" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E30:G34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25AE9CF5-1E14-474F-8AFB-73E0EC876C0D}" name="PivotTable10" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A28:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
-        <item n="Male" x="2"/>
-        <item n="Female" x="0"/>
-        <item n="Non-binery/Third Gender" x="1"/>
+        <item n="Fall" x="1"/>
+        <item n="Summer" x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2727,68 +3567,7 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Count of Q9" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Q9_2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30843EA2-3EDB-3042-9FE0-7BE8742289D3}" name="PivotTable17" cacheId="72" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E23:G28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item n="Environmental Engineering" x="0"/>
-        <item n="Nuclear Engineering" x="1"/>
-        <item n="Engineering Education" x="3"/>
-        <item n="Other" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="PhD Major/Program" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Which semester do you walk to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2803,16 +3582,15 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{512997FE-1FA6-D048-BE9E-8C3C5ACED054}" name="PivotTable16" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E16:G21" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78268734-4F23-5F4F-AD84-B3E0D16625D0}" name="PivotTable11" cacheId="217" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A34:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
+      <items count="4">
+        <item n="Spring" x="2"/>
+        <item n="Summer" x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2820,7 +3598,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
@@ -2829,9 +3607,6 @@
     </i>
     <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2849,7 +3624,7 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="How many days do you walk? (Summer)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Which semester do you use bike/cooter/skateboard to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
     <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2864,8 +3639,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB3F05AA-6338-AF41-9847-340195C42F29}" name="PivotTable15" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB3F05AA-6338-AF41-9847-340195C42F29}" name="PivotTable15" cacheId="221" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="E9:G14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -2925,179 +3700,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6CFDFD9-EAF3-C249-9B11-3470067D5FF8}" name="PivotTable14" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E3:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="0 days" x="0"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="How many days do you walk? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="%  of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F784DAE-4B68-C044-85D4-ED0E1D06794E}" name="PivotTable13" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A46:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Fall" x="0"/>
-        <item n="Spring" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you drive your private car  to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D20CD7D-5246-AC44-B09D-62C16D287304}" name="PivotTable12" cacheId="52" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A40:C44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Fall" x="1"/>
-        <item n="Spring" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you use public bus/university shuttle to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB30CBA6-E5F0-EA44-A838-B0241E7D49ED}" name="PivotTable29" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Spring)">
+<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB30CBA6-E5F0-EA44-A838-B0241E7D49ED}" name="PivotTable29" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Spring)">
   <location ref="L52:Q57" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -3252,31 +3856,51 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{78268734-4F23-5F4F-AD84-B3E0D16625D0}" name="PivotTable11" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A34:C38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
+<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C1F19F7-C74A-5A40-A59C-79919ACB7AEF}" name="PivotTable5" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="25">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Spring" x="2"/>
-        <item n="Summer" x="1"/>
-        <item x="0"/>
+      <items count="3">
+        <item n="Off Campus" x="0"/>
+        <item n="On Campus" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3294,128 +3918,10 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="Which semester do you use bike/cooter/skateboard to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Housing" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="3" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{25AE9CF5-1E14-474F-8AFB-73E0EC876C0D}" name="PivotTable10" cacheId="44" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A28:C32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
-        <item n="Fall" x="1"/>
-        <item n="Summer" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Which semester do you walk to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{091E3822-BD20-D64B-B6D4-2673059EEAA2}" name="PivotTable9" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A21:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item n="0 days" x="1"/>
-        <item n="1-2 days" x="0"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="How often do you commute to campus? (Summer)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Count of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="13">
+  <formats count="12">
     <format dxfId="48">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -3423,12 +3929,12 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="46">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -3445,111 +3951,6 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{843170AE-73E2-7445-9F03-A3B764517582}" name="PivotTable8" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A13:C19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item n="0 days" x="3"/>
-        <item n="1-2 days" x="1"/>
-        <item n="3-4 days" x="2"/>
-        <item n="5-6 days" x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="How often do you commute to campus? (Spring)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="12">
     <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -3557,12 +3958,12 @@
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="40">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="0" count="0"/>
+          <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -3570,35 +3971,6 @@
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="2">
@@ -3622,13 +3994,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B1D9AFE-41A4-7741-ABFD-36E64A3019CF}" name="PivotTable6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A8:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6CFDFD9-EAF3-C249-9B11-3470067D5FF8}" name="PivotTable14" cacheId="220" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E3:G7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item n="3-4 days" x="1"/>
-        <item n="5-6 days" x="0"/>
+      <items count="4">
+        <item n="0 days" x="0"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3636,12 +4009,15 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3659,69 +4035,9 @@
     </i>
   </colItems>
   <dataFields count="2">
-    <dataField name="How often do you commute to campus? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="How many days do you walk? (Fall)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="%  of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="36">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3735,130 +4051,93 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C1F19F7-C74A-5A40-A59C-79919ACB7AEF}" name="PivotTable5" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99153D7A-94A6-9444-9990-43EE8474B891}" name="PivotTable19" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Walking (Fall)">
+  <location ref="E36:I41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item n="Off Campus" x="0"/>
-        <item n="On Campus" x="1"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="4">
+        <item n="0 days" x="0"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item n="Male" x="2"/>
+        <item n="Female" x="0"/>
+        <item n="Non-binary/Third Gender" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="24"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="-2"/>
+    <field x="11"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="4">
     <i>
       <x/>
     </i>
-    <i i="1">
+    <i>
       <x v="1"/>
     </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="2">
-    <dataField name="Housing" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="% of Total" fld="3" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  <dataFields count="1">
+    <dataField name="Count of Q4_1" fld="11" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="12">
-    <format dxfId="30">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="28">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="6">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="2">
-            <x v="0"/>
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -3872,7 +4151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{451F2132-C498-464D-8262-F47D72BDA384}" name="PivotTable28" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Fall)">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{451F2132-C498-464D-8262-F47D72BDA384}" name="PivotTable28" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Private Car (Fall)">
   <location ref="L45:Q50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -4020,95 +4299,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C8A941D-6B66-694F-9972-4D971C815730}" name="PivotTable27" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Summer)">
-  <location ref="L38:S43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F784DAE-4B68-C044-85D4-ED0E1D06794E}" name="PivotTable13" cacheId="219" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A46:C50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="4">
+        <item n="Fall" x="0"/>
+        <item n="Spring" x="2"/>
         <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item n="Male" x="2"/>
-        <item n="Female" x="0"/>
-        <item n="Non-binary/Third Gender" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="24"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -4125,33 +4329,19 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="19"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="7">
+  <colItems count="2">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q6_3" fld="19" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Which semester do you drive your private car  to campus?" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4166,85 +4356,20 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C4176D8-E939-1843-B77D-81EA1801C95F}" name="PivotTable26" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Spring)">
-  <location ref="L31:R36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC2DC0EF-5024-174C-A136-103927E78A2F}" name="PivotTable18" cacheId="224" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E30:G34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="4">
         <item n="Male" x="2"/>
         <item n="Female" x="0"/>
-        <item n="Non-binary/Third Gender" x="1"/>
+        <item n="Non-binery/Third Gender" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="24"/>
+    <field x="0"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -4261,30 +4386,19 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="18"/>
+    <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="2">
     <i>
       <x/>
     </i>
-    <i>
+    <i i="1">
       <x v="1"/>
     </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q6_2" fld="18" subtotal="count" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Count of Q9" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Q9_2" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -4299,243 +4413,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A8D9812-6324-6442-B8AF-EC6F7F2E6E79}" name="PivotTable25" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bus/Shuttle (Fall)">
-  <location ref="L24:R29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item n="Male" x="2"/>
-        <item n="Female" x="0"/>
-        <item n="Non-binary/Third Gender" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="17"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q6_1" fld="17" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{21F811F7-18C0-0F44-ADBB-F26A7E058EFC}" name="PivotTable24" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Summer)">
-  <location ref="L17:Q22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="25">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="24"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="16"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Q5_3" fld="16" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6D81339-25DD-1143-94B1-BBCE9FACCCDC}" name="PivotTable23" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Spring)">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6D81339-25DD-1143-94B1-BBCE9FACCCDC}" name="PivotTable23" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Spring)">
   <location ref="L10:P15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -4635,8 +4513,199 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{091E3822-BD20-D64B-B6D4-2673059EEAA2}" name="PivotTable9" cacheId="215" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A21:C26" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item n="0 days" x="1"/>
+        <item n="1-2 days" x="0"/>
+        <item n="3-4 days" x="2"/>
+        <item n="5-6 days" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="How often do you commute to campus? (Summer)" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="13">
+    <format dxfId="12">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="4">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30843EA2-3EDB-3042-9FE0-7BE8742289D3}" name="PivotTable17" cacheId="223" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E23:G28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item n="Environmental Engineering" x="0"/>
+        <item n="Nuclear Engineering" x="1"/>
+        <item n="Engineering Education" x="3"/>
+        <item n="Other" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="PhD Major/Program" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="% of Total" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282D83A6-E029-1249-A1AE-ED294C0A922F}" name="PivotTable22" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Fall)">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282D83A6-E029-1249-A1AE-ED294C0A922F}" name="PivotTable22" cacheId="212" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" colHeaderCaption="Bike/Scooter/Skateboard (Fall)">
   <location ref="L3:Q8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="25">
     <pivotField showAll="0"/>
@@ -5048,10 +5117,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA5A152-ED4F-CB4C-8450-292CB0B4533B}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="23">
+        <v>11</v>
+      </c>
+      <c r="D2" s="23">
+        <v>2.3181820000000002</v>
+      </c>
+      <c r="E2" s="23">
+        <v>2.5960869999999998</v>
+      </c>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="23">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23">
+        <v>1.954545</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2.3974850000000001</v>
+      </c>
+      <c r="F3" s="23">
+        <v>0</v>
+      </c>
+      <c r="G3" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="23">
+        <v>11</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.7727269999999999</v>
+      </c>
+      <c r="E4" s="23">
+        <v>2.188437</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="23">
+        <v>11</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.2727269999999999</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1.8873219999999999</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="23">
+        <v>11</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1.1363639999999999</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1.919883</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="23">
+        <v>11</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.7727269999999999</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2.5078390000000002</v>
+      </c>
+      <c r="F7" s="23">
+        <v>0</v>
+      </c>
+      <c r="G7" s="23">
+        <v>7</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="23">
+        <v>11</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2.3636360000000001</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2.3168449999999998</v>
+      </c>
+      <c r="F8" s="23">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="23">
+        <v>11</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1.8636360000000001</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2.175179</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>7</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="23">
+        <v>11</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1.5909089999999999</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2.4478019999999998</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23">
+        <v>7</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="23">
+        <v>11</v>
+      </c>
+      <c r="D11" s="23">
+        <v>3.3181820000000002</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2.56969</v>
+      </c>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="23">
+        <v>11</v>
+      </c>
+      <c r="D12" s="23">
+        <v>3.454545</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2.4257569999999999</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="23">
+        <v>11</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2.2727270000000002</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2.188437</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A37FB68-4731-F74B-ADEA-29587AD31BB3}">
-  <dimension ref="A2:AM64"/>
+  <dimension ref="A2:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" zoomScale="225" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="F34" zoomScale="225" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -5087,21 +5518,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F3" t="s">
@@ -5110,33 +5541,33 @@
       <c r="G3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>10</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>0.90909090909090906</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0.54545454545454541</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M4">
@@ -5156,141 +5587,135 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4">
-        <v>1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>11</v>
       </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="4">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="6">
         <v>0.36363636363636365</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="4">
-        <v>1</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="P8" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="4">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="10">
-        <v>3</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
         <v>0.27272727272727271</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F9" t="s">
@@ -5301,51 +5726,51 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.54545454545454541</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>11</v>
       </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M11">
@@ -5362,135 +5787,132 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>1</v>
-      </c>
-      <c r="P12" s="4">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="6">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="7">
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="6">
         <v>0.27272727272727271</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13">
         <v>5</v>
       </c>
-      <c r="N13" s="4">
-        <v>1</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>11</v>
       </c>
-      <c r="G14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>3</v>
-      </c>
-      <c r="M14" s="4">
-        <v>1</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4">
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="10">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11">
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15">
         <v>8</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="O15" s="4">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="10">
-        <v>1</v>
-      </c>
-      <c r="C16" s="11">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F16" t="s">
@@ -5501,49 +5923,49 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>7</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>0.63636363636363635</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>6</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0.54545454545454541</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="7">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M18">
@@ -5563,141 +5985,135 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>11</v>
       </c>
-      <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0.18181818181818182</v>
       </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4">
-        <v>1</v>
-      </c>
-      <c r="P19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="4">
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="6">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="5">
+        <v>4</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>0.18181818181818182</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <v>2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="N20" s="4">
-        <v>1</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>11</v>
       </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>3</v>
-      </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
-        <v>1</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4">
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <v>0.18181818181818182</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22">
         <v>7</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22">
         <v>2</v>
       </c>
-      <c r="O22" s="4">
-        <v>1</v>
-      </c>
-      <c r="P22" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="10">
-        <v>3</v>
-      </c>
-      <c r="C23" s="11">
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="9">
         <v>0.27272727272727271</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F23" t="s">
@@ -5708,51 +6124,51 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="10">
-        <v>3</v>
-      </c>
-      <c r="C24" s="11">
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9">
         <v>0.27272727272727271</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>8</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="6">
         <v>0.72727272727272729</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="10">
-        <v>3</v>
-      </c>
-      <c r="C25" s="11">
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
         <v>0.27272727272727271</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="4">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M25">
@@ -5775,74 +6191,71 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <v>11</v>
       </c>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="C26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="4">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <v>1</v>
-      </c>
-      <c r="O26" s="4">
-        <v>1</v>
-      </c>
-      <c r="P26" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="4">
-        <v>1</v>
-      </c>
-      <c r="R26" s="4">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M27" s="4">
-        <v>4</v>
-      </c>
-      <c r="N27" s="4">
-        <v>1</v>
-      </c>
-      <c r="O27" s="4">
-        <v>1</v>
-      </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4">
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="R27">
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B28" t="s">
@@ -5851,72 +6264,68 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>11</v>
       </c>
-      <c r="G28" s="7">
-        <v>1</v>
-      </c>
-      <c r="L28" s="6" t="s">
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4">
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="R28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>6</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>0.54545454545454541</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="4">
-        <v>4</v>
-      </c>
-      <c r="N29" s="4">
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
         <v>2</v>
       </c>
-      <c r="O29" s="4">
-        <v>3</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>1</v>
-      </c>
-      <c r="R29" s="4">
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="7">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F30" t="s">
@@ -5927,49 +6336,49 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="A31" s="5"/>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6">
         <v>0.36363636363636365</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="4">
-        <v>4</v>
-      </c>
-      <c r="G31" s="7">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" s="6">
         <v>0.36363636363636365</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>11</v>
       </c>
-      <c r="C32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>0.54545454545454541</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M32">
@@ -5988,36 +6397,34 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E33" s="6" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E33" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="4">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4">
-        <v>1</v>
-      </c>
-      <c r="O33" s="4">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4">
-        <v>1</v>
-      </c>
-      <c r="R33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
@@ -6026,104 +6433,98 @@
       <c r="C34" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34">
         <v>11</v>
       </c>
-      <c r="G34" s="7">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6" t="s">
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M34" s="4">
-        <v>4</v>
-      </c>
-      <c r="N34" s="4">
-        <v>1</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1</v>
-      </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4">
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="R34">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>0.18181818181818182</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="4">
-        <v>4</v>
-      </c>
-      <c r="N36" s="4">
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
         <v>2</v>
       </c>
-      <c r="O36" s="4">
-        <v>3</v>
-      </c>
-      <c r="P36" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>1</v>
-      </c>
-      <c r="R36" s="4">
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="4">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37">
         <v>8</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F37" t="s">
@@ -6139,53 +6540,52 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>11</v>
       </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38">
         <v>2</v>
       </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" s="4">
-        <v>4</v>
-      </c>
-      <c r="L38" s="5" t="s">
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E39" s="6" t="s">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="4">
-        <v>3</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
         <v>2</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39">
         <v>6</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M39">
@@ -6207,8 +6607,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B40" t="s">
@@ -6217,155 +6617,142 @@
       <c r="C40" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4">
-        <v>1</v>
-      </c>
-      <c r="L40" s="6" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4">
-        <v>1</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>1</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1</v>
-      </c>
-      <c r="S40" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="4">
-        <v>3</v>
-      </c>
-      <c r="C41" s="7">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" s="6">
         <v>0.27272727272727271</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41">
         <v>6</v>
       </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>4</v>
-      </c>
-      <c r="I41" s="4">
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
         <v>11</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M41" s="4">
+      <c r="M41">
         <v>5</v>
       </c>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4">
-        <v>1</v>
-      </c>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4">
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="S41">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>0.18181818181818182</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M42" s="4">
-        <v>1</v>
-      </c>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="4">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="B43">
         <v>6</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>0.54545454545454541</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M43" s="4">
+      <c r="M43">
         <v>6</v>
       </c>
-      <c r="N43" s="4">
-        <v>1</v>
-      </c>
-      <c r="O43" s="4">
-        <v>1</v>
-      </c>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4">
-        <v>1</v>
-      </c>
-      <c r="S43" s="4">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>11</v>
       </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F44" t="s">
@@ -6384,32 +6771,31 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="E45" s="6" t="s">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45">
         <v>2</v>
       </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4">
-        <v>1</v>
-      </c>
-      <c r="J45" s="4">
-        <v>4</v>
-      </c>
-      <c r="L45" s="5" t="s">
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B46" t="s">
@@ -6418,23 +6804,22 @@
       <c r="C46" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="4">
-        <v>3</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="4">
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>2</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46">
         <v>6</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M46">
@@ -6453,148 +6838,140 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>8</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>0.72727272727272729</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4">
-        <v>1</v>
-      </c>
-      <c r="L47" s="6" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M47" s="4">
-        <v>1</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1</v>
-      </c>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4">
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <v>2</v>
       </c>
-      <c r="Q47" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="Q47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="7">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48">
         <v>6</v>
       </c>
-      <c r="G48" s="4">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
-        <v>3</v>
-      </c>
-      <c r="J48" s="4">
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
         <v>11</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M48" s="4">
+      <c r="M48">
         <v>2</v>
       </c>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>3</v>
+      </c>
+      <c r="Q48">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="4">
+      <c r="A49" s="5"/>
+      <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>0.18181818181818182</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M49" s="4">
-        <v>1</v>
-      </c>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4">
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>11</v>
       </c>
-      <c r="C50" s="7">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M50" s="4">
-        <v>4</v>
-      </c>
-      <c r="N50" s="4">
-        <v>1</v>
-      </c>
-      <c r="O50" s="4">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4">
+      <c r="M50">
+        <v>4</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
         <v>5</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="Q50">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F51" t="s">
@@ -6614,47 +6991,45 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4">
-        <v>1</v>
-      </c>
-      <c r="I52" s="4">
-        <v>1</v>
-      </c>
-      <c r="J52" s="4">
-        <v>4</v>
-      </c>
-      <c r="L52" s="5" t="s">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F53" s="4">
-        <v>4</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1</v>
-      </c>
-      <c r="J53" s="4">
+      <c r="F53">
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
         <v>6</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M53">
@@ -6674,113 +7049,104 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="L54" s="6" t="s">
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M54" s="4">
-        <v>1</v>
-      </c>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q54" s="4">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>3</v>
+      </c>
+      <c r="Q54">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55">
         <v>6</v>
       </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55">
         <v>2</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55">
         <v>11</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55">
         <v>2</v>
       </c>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4">
-        <v>1</v>
-      </c>
-      <c r="P55" s="4">
-        <v>3</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="Q55">
         <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4">
-        <v>1</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M57" s="4">
-        <v>3</v>
-      </c>
-      <c r="N57" s="4">
-        <v>1</v>
-      </c>
-      <c r="O57" s="4">
-        <v>1</v>
-      </c>
-      <c r="P57" s="4">
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
         <v>6</v>
       </c>
-      <c r="Q57" s="4">
+      <c r="Q57">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="4" t="s">
         <v>68</v>
       </c>
       <c r="M60">
@@ -6800,74 +7166,70 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L61" s="6" t="s">
+      <c r="L61" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M61" s="4">
-        <v>1</v>
-      </c>
-      <c r="N61" s="4">
-        <v>1</v>
-      </c>
-      <c r="O61" s="4">
-        <v>1</v>
-      </c>
-      <c r="P61" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="4">
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
         <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L62" s="6" t="s">
+      <c r="L62" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62">
         <v>2</v>
       </c>
-      <c r="N62" s="4">
-        <v>3</v>
-      </c>
-      <c r="O62" s="4">
-        <v>1</v>
-      </c>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4">
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L63" s="6" t="s">
+      <c r="L63" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="M63" s="4">
-        <v>1</v>
-      </c>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L64" s="6" t="s">
+      <c r="L64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M64" s="4">
-        <v>4</v>
-      </c>
-      <c r="N64" s="4">
-        <v>4</v>
-      </c>
-      <c r="O64" s="4">
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64">
         <v>2</v>
       </c>
-      <c r="P64" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="4">
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
         <v>11</v>
       </c>
     </row>
@@ -6876,7 +7238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9785D5-C573-6E4E-8370-7EEAD83B7C3A}">
   <dimension ref="A1:O14"/>
   <sheetViews>
@@ -6892,50 +7254,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="F1" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="6"/>
+      <c r="O2" s="6"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -6950,21 +7308,17 @@
       <c r="D3">
         <v>18.18</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="19">
         <v>8</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="20">
         <v>0.72699999999999998</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="L3" s="6"/>
+      <c r="O3" s="6"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -6979,21 +7333,17 @@
       <c r="D4">
         <v>27.27</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="24">
-        <v>1</v>
-      </c>
-      <c r="H4" s="25">
+      <c r="G4" s="19">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -7008,21 +7358,18 @@
       <c r="D5">
         <v>27.27</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="24">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25">
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="10"/>
+      <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -7037,21 +7384,17 @@
       <c r="D6">
         <v>27.27</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="24">
-        <v>1</v>
-      </c>
-      <c r="H6" s="25">
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="J6" s="10"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -7066,54 +7409,54 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="19">
         <v>11</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>100</v>
       </c>
       <c r="B11">
@@ -7125,18 +7468,18 @@
       <c r="D11">
         <v>9.09</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="24">
-        <v>4</v>
-      </c>
-      <c r="H11" s="25">
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+      <c r="H11" s="20">
         <v>0.36399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>101</v>
       </c>
       <c r="B12">
@@ -7148,18 +7491,18 @@
       <c r="D12">
         <v>18.18</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="19">
         <v>6</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="20">
         <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B13">
@@ -7171,18 +7514,18 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="24">
-        <v>1</v>
-      </c>
-      <c r="H13" s="25">
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B14">
@@ -7194,13 +7537,13 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="19">
         <v>11</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="20">
         <v>1</v>
       </c>
     </row>
@@ -7214,7 +7557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
@@ -8175,7 +8518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FD83F1-8E9E-D343-A9C1-0AC35A463EB2}">
   <dimension ref="A1:Y12"/>
   <sheetViews>
@@ -8232,52 +8575,52 @@
       <c r="G1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="11" t="s">
         <v>115</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -9076,7 +9419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961EA02F-DF11-C44F-9FDA-5C04B85FC30E}">
   <dimension ref="A1:AP17"/>
   <sheetViews>
@@ -9091,1866 +9434,1866 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="17" t="s">
+      <c r="R1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AE2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AF2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AJ2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="18" t="s">
+      <c r="AK2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="20">
-        <v>1</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="20">
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15">
         <v>100</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="15">
         <v>69</v>
       </c>
-      <c r="G3" s="20">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="20">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="15">
         <v>8</v>
       </c>
-      <c r="S3" s="20">
-        <v>1</v>
-      </c>
-      <c r="T3" s="20">
-        <v>3</v>
-      </c>
-      <c r="U3" s="20">
-        <v>1</v>
-      </c>
-      <c r="V3" s="20">
-        <v>1</v>
-      </c>
-      <c r="W3" s="20">
-        <v>3</v>
-      </c>
-      <c r="X3" s="20">
+      <c r="S3" s="15">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15">
+        <v>3</v>
+      </c>
+      <c r="U3" s="15">
+        <v>1</v>
+      </c>
+      <c r="V3" s="15">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15">
+        <v>3</v>
+      </c>
+      <c r="X3" s="15">
         <v>2</v>
       </c>
-      <c r="Y3" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="20">
+      <c r="Y3" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="15">
         <v>2</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="15">
         <v>2</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="15">
         <v>2</v>
       </c>
-      <c r="AD3" s="20">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="20">
+      <c r="AD3" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE3" s="15">
         <v>2</v>
       </c>
-      <c r="AF3" s="20">
+      <c r="AF3" s="15">
         <v>2</v>
       </c>
-      <c r="AG3" s="20">
+      <c r="AG3" s="15">
         <v>2</v>
       </c>
-      <c r="AH3" s="20">
+      <c r="AH3" s="15">
         <v>2</v>
       </c>
-      <c r="AI3" s="20">
+      <c r="AI3" s="15">
         <v>2</v>
       </c>
-      <c r="AJ3" s="20">
+      <c r="AJ3" s="15">
         <v>2</v>
       </c>
-      <c r="AK3" s="20">
+      <c r="AK3" s="15">
         <v>2</v>
       </c>
-      <c r="AL3" s="21"/>
-      <c r="AM3" s="20">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP3" s="21"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="16"/>
     </row>
     <row r="4" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C4" s="20">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20">
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15">
         <v>100</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="15">
         <v>119</v>
       </c>
-      <c r="G4" s="20">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="20">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="21"/>
-      <c r="AM4" s="20">
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="15">
         <v>6</v>
       </c>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="20">
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="15">
         <v>2</v>
       </c>
-      <c r="AP4" s="21"/>
+      <c r="AP4" s="16"/>
     </row>
     <row r="5" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="20">
-        <v>1</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="20">
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="15">
         <v>100</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="15">
         <v>167</v>
       </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="20">
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="15">
         <v>8</v>
       </c>
-      <c r="S5" s="20">
-        <v>3</v>
-      </c>
-      <c r="T5" s="20">
-        <v>3</v>
-      </c>
-      <c r="U5" s="20">
+      <c r="S5" s="15">
+        <v>3</v>
+      </c>
+      <c r="T5" s="15">
+        <v>3</v>
+      </c>
+      <c r="U5" s="15">
         <v>2</v>
       </c>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="20">
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="15">
         <v>2</v>
       </c>
-      <c r="Z5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="20">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="20">
-        <v>3</v>
-      </c>
-      <c r="AK5" s="20">
+      <c r="Z5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="15">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>3</v>
+      </c>
+      <c r="AK5" s="15">
         <v>2</v>
       </c>
-      <c r="AL5" s="21"/>
-      <c r="AM5" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="20">
-        <v>4</v>
-      </c>
-      <c r="AP5" s="21"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="15">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="16"/>
     </row>
     <row r="6" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>0</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="15">
         <v>100</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="15">
         <v>92</v>
       </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="20">
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P6" s="21" t="s">
+      <c r="P6" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Q6" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="15">
         <v>8</v>
       </c>
-      <c r="S6" s="20">
-        <v>4</v>
-      </c>
-      <c r="T6" s="20">
-        <v>4</v>
-      </c>
-      <c r="U6" s="20">
+      <c r="S6" s="15">
+        <v>4</v>
+      </c>
+      <c r="T6" s="15">
+        <v>4</v>
+      </c>
+      <c r="U6" s="15">
         <v>2</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="20">
-        <v>4</v>
-      </c>
-      <c r="AJ6" s="20">
-        <v>4</v>
-      </c>
-      <c r="AK6" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="20">
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="15">
         <v>2</v>
       </c>
-      <c r="AP6" s="21"/>
+      <c r="AP6" s="16"/>
     </row>
     <row r="7" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="15">
         <v>0</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="15">
         <v>100</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <v>113</v>
       </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="20">
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="15">
         <v>39.780099999999997</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="15">
         <v>-86.055700000000002</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="15">
         <v>8</v>
       </c>
-      <c r="S7" s="20">
-        <v>4</v>
-      </c>
-      <c r="T7" s="20">
-        <v>4</v>
-      </c>
-      <c r="U7" s="20">
-        <v>1</v>
-      </c>
-      <c r="V7" s="20">
-        <v>1</v>
-      </c>
-      <c r="W7" s="21"/>
-      <c r="X7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="20">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="20">
+      <c r="S7" s="15">
+        <v>4</v>
+      </c>
+      <c r="T7" s="15">
+        <v>4</v>
+      </c>
+      <c r="U7" s="15">
+        <v>1</v>
+      </c>
+      <c r="V7" s="15">
+        <v>1</v>
+      </c>
+      <c r="W7" s="16"/>
+      <c r="X7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="15">
         <v>2</v>
       </c>
-      <c r="AG7" s="20">
+      <c r="AG7" s="15">
         <v>2</v>
       </c>
-      <c r="AH7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AK7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="20">
+      <c r="AH7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="15">
         <v>2</v>
       </c>
-      <c r="AP7" s="21"/>
+      <c r="AP7" s="16"/>
     </row>
     <row r="8" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="15">
         <v>0</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="15">
         <v>100</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="15">
         <v>166</v>
       </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="20">
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="15">
         <v>8</v>
       </c>
-      <c r="S8" s="20">
-        <v>3</v>
-      </c>
-      <c r="T8" s="20">
+      <c r="S8" s="15">
+        <v>3</v>
+      </c>
+      <c r="T8" s="15">
         <v>2</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="15">
         <v>2</v>
       </c>
-      <c r="V8" s="20">
-        <v>1</v>
-      </c>
-      <c r="W8" s="20">
-        <v>3</v>
-      </c>
-      <c r="X8" s="20">
+      <c r="V8" s="15">
+        <v>1</v>
+      </c>
+      <c r="W8" s="15">
+        <v>3</v>
+      </c>
+      <c r="X8" s="15">
         <v>2</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="15">
         <v>2</v>
       </c>
-      <c r="Z8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="20">
+      <c r="Z8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="15">
         <v>2</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="15">
         <v>2</v>
       </c>
-      <c r="AD8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF8" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG8" s="20">
+      <c r="AD8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="15">
         <v>5</v>
       </c>
-      <c r="AH8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="20">
+      <c r="AH8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="15">
         <v>2</v>
       </c>
-      <c r="AK8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="20">
+      <c r="AK8" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="15">
         <v>5</v>
       </c>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="20">
-        <v>3</v>
-      </c>
-      <c r="AP8" s="21"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="15">
+        <v>3</v>
+      </c>
+      <c r="AP8" s="16"/>
     </row>
     <row r="9" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="15">
         <v>0</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="15">
         <v>100</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="15">
         <v>373</v>
       </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19" t="s">
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="20">
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15">
         <v>39.046900000000001</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="15">
         <v>-77.490300000000005</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="15">
         <v>8</v>
       </c>
-      <c r="S9" s="20">
-        <v>4</v>
-      </c>
-      <c r="T9" s="20">
-        <v>4</v>
-      </c>
-      <c r="U9" s="20">
-        <v>3</v>
-      </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI9" s="20">
-        <v>4</v>
-      </c>
-      <c r="AJ9" s="20">
-        <v>4</v>
-      </c>
-      <c r="AK9" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="20">
+      <c r="S9" s="15">
+        <v>4</v>
+      </c>
+      <c r="T9" s="15">
+        <v>4</v>
+      </c>
+      <c r="U9" s="15">
+        <v>3</v>
+      </c>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="15">
         <v>2</v>
       </c>
-      <c r="AP9" s="21"/>
+      <c r="AP9" s="16"/>
     </row>
     <row r="10" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="15">
         <v>0</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="15">
         <v>100</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>296</v>
       </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="19" t="s">
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="20">
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="15">
         <v>8</v>
       </c>
-      <c r="S10" s="20">
-        <v>4</v>
-      </c>
-      <c r="T10" s="20">
-        <v>4</v>
-      </c>
-      <c r="U10" s="20">
+      <c r="S10" s="15">
+        <v>4</v>
+      </c>
+      <c r="T10" s="15">
+        <v>4</v>
+      </c>
+      <c r="U10" s="15">
         <v>2</v>
       </c>
-      <c r="V10" s="20">
-        <v>3</v>
-      </c>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="20">
+      <c r="V10" s="15">
+        <v>3</v>
+      </c>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="15">
         <v>2</v>
       </c>
-      <c r="AG10" s="20">
+      <c r="AG10" s="15">
         <v>2</v>
       </c>
-      <c r="AH10" s="20">
+      <c r="AH10" s="15">
         <v>2</v>
       </c>
-      <c r="AI10" s="20">
-        <v>4</v>
-      </c>
-      <c r="AJ10" s="20">
-        <v>4</v>
-      </c>
-      <c r="AK10" s="20">
-        <v>4</v>
-      </c>
-      <c r="AL10" s="21"/>
-      <c r="AM10" s="20">
+      <c r="AI10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="15">
         <v>9</v>
       </c>
-      <c r="AN10" s="21"/>
-      <c r="AO10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP10" s="21"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="16"/>
     </row>
     <row r="11" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="15">
         <v>0</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="15">
         <v>100</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="15">
         <v>202</v>
       </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20">
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15">
         <v>39.7684</v>
       </c>
-      <c r="O11" s="20">
+      <c r="O11" s="15">
         <v>-86.158000000000001</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="15">
         <v>8</v>
       </c>
-      <c r="S11" s="20">
-        <v>4</v>
-      </c>
-      <c r="T11" s="20">
-        <v>4</v>
-      </c>
-      <c r="U11" s="20">
-        <v>3</v>
-      </c>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AB11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AF11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AG11" s="21"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AJ11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AK11" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP11" s="21"/>
+      <c r="S11" s="15">
+        <v>4</v>
+      </c>
+      <c r="T11" s="15">
+        <v>4</v>
+      </c>
+      <c r="U11" s="15">
+        <v>3</v>
+      </c>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="16"/>
     </row>
     <row r="12" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>0</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>100</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="15">
         <v>162</v>
       </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="20">
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="15">
         <v>8</v>
       </c>
-      <c r="S12" s="20">
-        <v>4</v>
-      </c>
-      <c r="T12" s="20">
-        <v>4</v>
-      </c>
-      <c r="U12" s="20">
-        <v>4</v>
-      </c>
-      <c r="V12" s="20">
-        <v>1</v>
-      </c>
-      <c r="W12" s="20">
-        <v>3</v>
-      </c>
-      <c r="X12" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="20">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="20">
+      <c r="S12" s="15">
+        <v>4</v>
+      </c>
+      <c r="T12" s="15">
+        <v>4</v>
+      </c>
+      <c r="U12" s="15">
+        <v>4</v>
+      </c>
+      <c r="V12" s="15">
+        <v>1</v>
+      </c>
+      <c r="W12" s="15">
+        <v>3</v>
+      </c>
+      <c r="X12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="15">
         <v>2</v>
       </c>
-      <c r="AP12" s="21"/>
+      <c r="AP12" s="16"/>
     </row>
     <row r="13" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>100</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="15">
         <v>129</v>
       </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="20">
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="15">
         <v>8</v>
       </c>
-      <c r="S13" s="20">
-        <v>4</v>
-      </c>
-      <c r="T13" s="20">
-        <v>4</v>
-      </c>
-      <c r="U13" s="20">
-        <v>4</v>
-      </c>
-      <c r="V13" s="20">
-        <v>1</v>
-      </c>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="20">
-        <v>4</v>
-      </c>
-      <c r="AJ13" s="20">
-        <v>4</v>
-      </c>
-      <c r="AK13" s="20">
-        <v>4</v>
-      </c>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="20">
+      <c r="S13" s="15">
+        <v>4</v>
+      </c>
+      <c r="T13" s="15">
+        <v>4</v>
+      </c>
+      <c r="U13" s="15">
+        <v>4</v>
+      </c>
+      <c r="V13" s="15">
+        <v>1</v>
+      </c>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="15">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="15">
+        <v>4</v>
+      </c>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN13" s="16"/>
+      <c r="AO13" s="15">
         <v>2</v>
       </c>
-      <c r="AP13" s="21"/>
+      <c r="AP13" s="16"/>
     </row>
     <row r="14" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>0</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>100</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>143</v>
       </c>
-      <c r="G14" s="20">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="20">
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="15">
         <v>8</v>
       </c>
-      <c r="S14" s="20">
-        <v>3</v>
-      </c>
-      <c r="T14" s="20">
-        <v>3</v>
-      </c>
-      <c r="U14" s="20">
-        <v>4</v>
-      </c>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG14" s="20">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="20">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AJ14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AK14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP14" s="21"/>
+      <c r="S14" s="15">
+        <v>3</v>
+      </c>
+      <c r="T14" s="15">
+        <v>3</v>
+      </c>
+      <c r="U14" s="15">
+        <v>4</v>
+      </c>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="16"/>
+      <c r="AO14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="16"/>
     </row>
     <row r="15" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>0</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>100</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>228</v>
       </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="20">
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O15" s="20">
+      <c r="O15" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="15">
         <v>8</v>
       </c>
-      <c r="S15" s="20">
-        <v>4</v>
-      </c>
-      <c r="T15" s="20">
-        <v>1</v>
-      </c>
-      <c r="U15" s="20">
-        <v>1</v>
-      </c>
-      <c r="V15" s="20">
-        <v>1</v>
-      </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="20">
-        <v>4</v>
-      </c>
-      <c r="AA15" s="20">
+      <c r="S15" s="15">
+        <v>4</v>
+      </c>
+      <c r="T15" s="15">
+        <v>1</v>
+      </c>
+      <c r="U15" s="15">
+        <v>1</v>
+      </c>
+      <c r="V15" s="15">
+        <v>1</v>
+      </c>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="15">
+        <v>4</v>
+      </c>
+      <c r="AA15" s="15">
         <v>2</v>
       </c>
-      <c r="AB15" s="20">
-        <v>3</v>
-      </c>
-      <c r="AC15" s="20">
-        <v>3</v>
-      </c>
-      <c r="AD15" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE15" s="20">
+      <c r="AB15" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC15" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="15">
         <v>5</v>
       </c>
-      <c r="AF15" s="20">
+      <c r="AF15" s="15">
         <v>5</v>
       </c>
-      <c r="AG15" s="20">
-        <v>3</v>
-      </c>
-      <c r="AH15" s="20">
+      <c r="AG15" s="15">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="15">
         <v>5</v>
       </c>
-      <c r="AI15" s="20">
+      <c r="AI15" s="15">
         <v>2</v>
       </c>
-      <c r="AJ15" s="20">
-        <v>4</v>
-      </c>
-      <c r="AK15" s="20">
+      <c r="AJ15" s="15">
+        <v>4</v>
+      </c>
+      <c r="AK15" s="15">
         <v>5</v>
       </c>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="20">
-        <v>4</v>
-      </c>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="21"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="15">
+        <v>4</v>
+      </c>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP15" s="16"/>
     </row>
     <row r="16" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <v>0</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>100</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>93</v>
       </c>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="20">
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="15">
         <v>40.444400000000002</v>
       </c>
-      <c r="O16" s="20">
+      <c r="O16" s="15">
         <v>-86.925600000000003</v>
       </c>
-      <c r="P16" s="21" t="s">
+      <c r="P16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="21" t="s">
+      <c r="Q16" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="15">
         <v>7</v>
       </c>
-      <c r="S16" s="20">
-        <v>3</v>
-      </c>
-      <c r="T16" s="21"/>
-      <c r="U16" s="20">
-        <v>3</v>
-      </c>
-      <c r="V16" s="20">
-        <v>1</v>
-      </c>
-      <c r="W16" s="20">
+      <c r="S16" s="15">
+        <v>3</v>
+      </c>
+      <c r="T16" s="16"/>
+      <c r="U16" s="15">
+        <v>3</v>
+      </c>
+      <c r="V16" s="15">
+        <v>1</v>
+      </c>
+      <c r="W16" s="15">
         <v>2</v>
       </c>
-      <c r="X16" s="20">
+      <c r="X16" s="15">
         <v>2</v>
       </c>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AB16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AD16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AE16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AF16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AG16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AH16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AI16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AJ16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AK16" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="20">
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AG16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AK16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="15">
         <v>6</v>
       </c>
-      <c r="AN16" s="21"/>
-      <c r="AO16" s="20">
-        <v>1</v>
-      </c>
-      <c r="AP16" s="21"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="16"/>
     </row>
     <row r="17" spans="1:42" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>0</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>100</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>87047</v>
       </c>
-      <c r="G17" s="20">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19" t="s">
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="20">
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="15">
         <v>37.984200000000001</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="15">
         <v>23.735299999999999</v>
       </c>
-      <c r="P17" s="21" t="s">
+      <c r="P17" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="Q17" s="21" t="s">
+      <c r="Q17" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="15">
         <v>8</v>
       </c>
-      <c r="S17" s="20">
-        <v>3</v>
-      </c>
-      <c r="T17" s="20">
-        <v>3</v>
-      </c>
-      <c r="U17" s="20">
+      <c r="S17" s="15">
+        <v>3</v>
+      </c>
+      <c r="T17" s="15">
+        <v>3</v>
+      </c>
+      <c r="U17" s="15">
         <v>2</v>
       </c>
-      <c r="V17" s="20">
-        <v>3</v>
-      </c>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="20">
+      <c r="V17" s="15">
+        <v>3</v>
+      </c>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="15">
         <v>2</v>
       </c>
-      <c r="Z17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AA17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AB17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AC17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AH17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AJ17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AK17" s="20">
-        <v>3</v>
-      </c>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="20">
+      <c r="Z17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AK17" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="15">
         <v>5</v>
       </c>
-      <c r="AN17" s="21"/>
-      <c r="AO17" s="20">
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="15">
         <v>2</v>
       </c>
-      <c r="AP17" s="21"/>
+      <c r="AP17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
